--- a/VoidWanderers.rte/Actors/BrainRobotStats.xlsx
+++ b/VoidWanderers.rte/Actors/BrainRobotStats.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Program Files (x86)\Data Realms\Cortex Command V105 VW\VoidWanderers.rte\Actors\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18000" windowHeight="20235"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18000" windowHeight="18240"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="16">
   <si>
     <t>Robot</t>
   </si>
@@ -69,12 +64,18 @@
   </si>
   <si>
     <t>Robot Leg</t>
+  </si>
+  <si>
+    <t>Coefficient</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -107,8 +108,8 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -169,7 +170,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -204,7 +205,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -381,7 +382,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -389,10 +390,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -402,402 +403,425 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="C1">
+        <v>1.4</v>
+      </c>
+      <c r="D1">
+        <v>1.8</v>
+      </c>
+      <c r="E1">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="F1">
+        <v>2.6</v>
+      </c>
+      <c r="G1">
         <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2">
-        <v>2800</v>
-      </c>
-      <c r="C2">
-        <f>$B2*1.25</f>
-        <v>3500</v>
-      </c>
-      <c r="D2">
-        <f>$B2*1.5</f>
-        <v>4200</v>
-      </c>
-      <c r="E2">
-        <f>$B2*1.75</f>
-        <v>4900</v>
-      </c>
-      <c r="F2">
-        <f>$B2*2</f>
-        <v>5600</v>
-      </c>
-      <c r="G2">
-        <f>$B2*2.25</f>
-        <v>6300</v>
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3">
-        <v>4300</v>
-      </c>
-      <c r="C3">
-        <f t="shared" ref="C3:G6" si="0">$B3*1.25</f>
-        <v>5375</v>
-      </c>
-      <c r="D3">
-        <f t="shared" ref="D3:D6" si="1">$B3*1.5</f>
-        <v>6450</v>
-      </c>
-      <c r="E3">
-        <f t="shared" ref="E3:E6" si="2">$B3*1.75</f>
-        <v>7525</v>
-      </c>
-      <c r="F3">
-        <f t="shared" ref="F3:F6" si="3">$B3*2</f>
-        <v>8600</v>
-      </c>
-      <c r="G3">
-        <f t="shared" ref="G3:G6" si="4">$B3*2.25</f>
-        <v>9675</v>
+        <v>7</v>
+      </c>
+      <c r="B3" s="1">
+        <v>2800</v>
+      </c>
+      <c r="C3" s="1">
+        <f>$B3*$C$1</f>
+        <v>3919.9999999999995</v>
+      </c>
+      <c r="D3" s="1">
+        <f>$B3*$D$1</f>
+        <v>5040</v>
+      </c>
+      <c r="E3" s="1">
+        <f>$B3*$E$1</f>
+        <v>6160.0000000000009</v>
+      </c>
+      <c r="F3" s="1">
+        <f>$B3*$F$1</f>
+        <v>7280</v>
+      </c>
+      <c r="G3" s="1">
+        <f>$B3*$G$1</f>
+        <v>8400</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4">
-        <v>20</v>
-      </c>
-      <c r="C4">
-        <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="D4">
-        <f t="shared" si="1"/>
-        <v>30</v>
-      </c>
-      <c r="E4">
-        <f t="shared" si="2"/>
-        <v>35</v>
-      </c>
-      <c r="F4">
-        <f t="shared" si="3"/>
-        <v>40</v>
-      </c>
-      <c r="G4">
-        <f t="shared" si="4"/>
-        <v>45</v>
+        <v>8</v>
+      </c>
+      <c r="B4" s="1">
+        <v>4300</v>
+      </c>
+      <c r="C4" s="1">
+        <f t="shared" ref="C4:C7" si="0">$B4*$C$1</f>
+        <v>6020</v>
+      </c>
+      <c r="D4" s="1">
+        <f t="shared" ref="D4:D19" si="1">$B4*$D$1</f>
+        <v>7740</v>
+      </c>
+      <c r="E4" s="1">
+        <f t="shared" ref="E4:E19" si="2">$B4*$E$1</f>
+        <v>9460</v>
+      </c>
+      <c r="F4" s="1">
+        <f t="shared" ref="F4:F19" si="3">$B4*$F$1</f>
+        <v>11180</v>
+      </c>
+      <c r="G4" s="1">
+        <f t="shared" ref="G4:G19" si="4">$B4*$G$1</f>
+        <v>12900</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B5" s="1">
-        <v>1.9</v>
-      </c>
-      <c r="C5">
+        <v>20</v>
+      </c>
+      <c r="C5" s="1">
         <f t="shared" si="0"/>
-        <v>2.375</v>
-      </c>
-      <c r="D5">
+        <v>28</v>
+      </c>
+      <c r="D5" s="1">
         <f t="shared" si="1"/>
-        <v>2.8499999999999996</v>
-      </c>
-      <c r="E5">
+        <v>36</v>
+      </c>
+      <c r="E5" s="1">
         <f t="shared" si="2"/>
-        <v>3.3249999999999997</v>
-      </c>
-      <c r="F5">
+        <v>44</v>
+      </c>
+      <c r="F5" s="1">
         <f t="shared" si="3"/>
-        <v>3.8</v>
-      </c>
-      <c r="G5">
+        <v>52</v>
+      </c>
+      <c r="G5" s="1">
         <f t="shared" si="4"/>
-        <v>4.2749999999999995</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="2">
+        <v>1.9</v>
+      </c>
+      <c r="C6" s="2">
+        <f t="shared" si="0"/>
+        <v>2.6599999999999997</v>
+      </c>
+      <c r="D6" s="2">
+        <f t="shared" si="1"/>
+        <v>3.42</v>
+      </c>
+      <c r="E6" s="2">
+        <f t="shared" si="2"/>
+        <v>4.18</v>
+      </c>
+      <c r="F6" s="2">
+        <f t="shared" si="3"/>
+        <v>4.9399999999999995</v>
+      </c>
+      <c r="G6" s="2">
+        <f t="shared" si="4"/>
+        <v>5.6999999999999993</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B7" s="1">
         <v>30</v>
       </c>
-      <c r="C6">
+      <c r="C7" s="1">
         <f t="shared" si="0"/>
-        <v>37.5</v>
-      </c>
-      <c r="D6">
+        <v>42</v>
+      </c>
+      <c r="D7" s="1">
         <f t="shared" si="1"/>
-        <v>45</v>
-      </c>
-      <c r="E6">
+        <v>54</v>
+      </c>
+      <c r="E7" s="1">
         <f t="shared" si="2"/>
-        <v>52.5</v>
-      </c>
-      <c r="F6">
+        <v>66</v>
+      </c>
+      <c r="F7" s="1">
         <f t="shared" si="3"/>
-        <v>60</v>
-      </c>
-      <c r="G6">
+        <v>78</v>
+      </c>
+      <c r="G7" s="1">
         <f t="shared" si="4"/>
-        <v>67.5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" t="s">
-        <v>1</v>
-      </c>
-      <c r="D8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E8" t="s">
-        <v>4</v>
-      </c>
-      <c r="F8" t="s">
-        <v>5</v>
-      </c>
-      <c r="G8" t="s">
-        <v>6</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9">
-        <v>150</v>
-      </c>
-      <c r="C9">
-        <f>$B9*1.25</f>
-        <v>187.5</v>
-      </c>
-      <c r="D9">
-        <f>$B9*1.5</f>
-        <v>225</v>
-      </c>
-      <c r="E9">
-        <f>$B9*1.75</f>
-        <v>262.5</v>
-      </c>
-      <c r="F9">
-        <f>$B9*2</f>
-        <v>300</v>
-      </c>
-      <c r="G9">
-        <f>$B9*2.25</f>
-        <v>337.5</v>
+        <v>12</v>
+      </c>
+      <c r="B9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G9" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="1">
+        <v>150</v>
+      </c>
+      <c r="C10" s="1">
+        <f>$B10*$C$1</f>
+        <v>210</v>
+      </c>
+      <c r="D10" s="1">
+        <f t="shared" si="1"/>
+        <v>270</v>
+      </c>
+      <c r="E10" s="1">
+        <f t="shared" si="2"/>
+        <v>330</v>
+      </c>
+      <c r="F10" s="1">
+        <f t="shared" si="3"/>
+        <v>390</v>
+      </c>
+      <c r="G10" s="1">
+        <f t="shared" si="4"/>
+        <v>450</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>9</v>
       </c>
-      <c r="B10">
+      <c r="B11" s="1">
         <v>12</v>
       </c>
-      <c r="C10">
-        <f>$B10*1.25</f>
-        <v>15</v>
-      </c>
-      <c r="D10">
-        <f>$B10*1.5</f>
-        <v>18</v>
-      </c>
-      <c r="E10">
-        <f>$B10*1.75</f>
-        <v>21</v>
-      </c>
-      <c r="F10">
-        <f>$B10*2</f>
-        <v>24</v>
-      </c>
-      <c r="G10">
-        <f>$B10*2.25</f>
-        <v>27</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" t="s">
-        <v>2</v>
-      </c>
-      <c r="C12" t="s">
-        <v>1</v>
-      </c>
-      <c r="D12" t="s">
-        <v>3</v>
-      </c>
-      <c r="E12" t="s">
-        <v>4</v>
-      </c>
-      <c r="F12" t="s">
-        <v>5</v>
-      </c>
-      <c r="G12" t="s">
-        <v>6</v>
+      <c r="C11" s="1">
+        <f>$B11*$C$1</f>
+        <v>16.799999999999997</v>
+      </c>
+      <c r="D11" s="1">
+        <f t="shared" si="1"/>
+        <v>21.6</v>
+      </c>
+      <c r="E11" s="1">
+        <f t="shared" si="2"/>
+        <v>26.400000000000002</v>
+      </c>
+      <c r="F11" s="1">
+        <f t="shared" si="3"/>
+        <v>31.200000000000003</v>
+      </c>
+      <c r="G11" s="1">
+        <f t="shared" si="4"/>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>8</v>
-      </c>
-      <c r="B13">
-        <v>45</v>
-      </c>
-      <c r="C13">
-        <f>$B13*1.25</f>
-        <v>56.25</v>
-      </c>
-      <c r="D13">
-        <f>$B13*1.5</f>
-        <v>67.5</v>
-      </c>
-      <c r="E13">
-        <f>$B13*1.75</f>
-        <v>78.75</v>
-      </c>
-      <c r="F13">
-        <f>$B13*2</f>
-        <v>90</v>
-      </c>
-      <c r="G13">
-        <f>$B13*2.25</f>
-        <v>101.25</v>
+        <v>13</v>
+      </c>
+      <c r="B13" t="s">
+        <v>2</v>
+      </c>
+      <c r="C13" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" t="s">
+        <v>3</v>
+      </c>
+      <c r="E13" t="s">
+        <v>4</v>
+      </c>
+      <c r="F13" t="s">
+        <v>5</v>
+      </c>
+      <c r="G13" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" s="1">
+        <v>45</v>
+      </c>
+      <c r="C14" s="1">
+        <f>$B14*$C$1</f>
+        <v>62.999999999999993</v>
+      </c>
+      <c r="D14" s="1">
+        <f t="shared" si="1"/>
+        <v>81</v>
+      </c>
+      <c r="E14" s="1">
+        <f t="shared" si="2"/>
+        <v>99.000000000000014</v>
+      </c>
+      <c r="F14" s="1">
+        <f t="shared" si="3"/>
+        <v>117</v>
+      </c>
+      <c r="G14" s="1">
+        <f t="shared" si="4"/>
+        <v>135</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>9</v>
       </c>
-      <c r="B14">
+      <c r="B15" s="1">
         <v>7</v>
       </c>
-      <c r="C14">
-        <f>$B14*1.25</f>
-        <v>8.75</v>
-      </c>
-      <c r="D14">
-        <f>$B14*1.5</f>
-        <v>10.5</v>
-      </c>
-      <c r="E14">
-        <f>$B14*1.75</f>
-        <v>12.25</v>
-      </c>
-      <c r="F14">
-        <f>$B14*2</f>
-        <v>14</v>
-      </c>
-      <c r="G14">
-        <f>$B14*2.25</f>
-        <v>15.75</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16" t="s">
-        <v>2</v>
-      </c>
-      <c r="C16" t="s">
-        <v>1</v>
-      </c>
-      <c r="D16" t="s">
-        <v>3</v>
-      </c>
-      <c r="E16" t="s">
-        <v>4</v>
-      </c>
-      <c r="F16" t="s">
-        <v>5</v>
-      </c>
-      <c r="G16" t="s">
-        <v>6</v>
+      <c r="C15" s="1">
+        <f>$B15*$C$1</f>
+        <v>9.7999999999999989</v>
+      </c>
+      <c r="D15" s="1">
+        <f t="shared" si="1"/>
+        <v>12.6</v>
+      </c>
+      <c r="E15" s="1">
+        <f t="shared" si="2"/>
+        <v>15.400000000000002</v>
+      </c>
+      <c r="F15" s="1">
+        <f t="shared" si="3"/>
+        <v>18.2</v>
+      </c>
+      <c r="G15" s="1">
+        <f t="shared" si="4"/>
+        <v>21</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>8</v>
-      </c>
-      <c r="B17">
-        <v>75</v>
-      </c>
-      <c r="C17">
-        <f>$B17*1.25</f>
-        <v>93.75</v>
-      </c>
-      <c r="D17">
-        <f>$B17*1.5</f>
-        <v>112.5</v>
-      </c>
-      <c r="E17">
-        <f>$B17*1.75</f>
-        <v>131.25</v>
-      </c>
-      <c r="F17">
-        <f>$B17*2</f>
-        <v>150</v>
-      </c>
-      <c r="G17">
-        <f>$B17*2.25</f>
-        <v>168.75</v>
+        <v>14</v>
+      </c>
+      <c r="B17" t="s">
+        <v>2</v>
+      </c>
+      <c r="C17" t="s">
+        <v>1</v>
+      </c>
+      <c r="D17" t="s">
+        <v>3</v>
+      </c>
+      <c r="E17" t="s">
+        <v>4</v>
+      </c>
+      <c r="F17" t="s">
+        <v>5</v>
+      </c>
+      <c r="G17" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18" s="1">
+        <v>75</v>
+      </c>
+      <c r="C18" s="1">
+        <f>$B18*$C$1</f>
+        <v>105</v>
+      </c>
+      <c r="D18" s="1">
+        <f t="shared" si="1"/>
+        <v>135</v>
+      </c>
+      <c r="E18" s="1">
+        <f t="shared" si="2"/>
+        <v>165</v>
+      </c>
+      <c r="F18" s="1">
+        <f t="shared" si="3"/>
+        <v>195</v>
+      </c>
+      <c r="G18" s="1">
+        <f t="shared" si="4"/>
+        <v>225</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>9</v>
       </c>
-      <c r="B18">
+      <c r="B19" s="1">
         <v>8</v>
       </c>
-      <c r="C18">
-        <f>$B18*1.25</f>
-        <v>10</v>
-      </c>
-      <c r="D18">
-        <f>$B18*1.5</f>
-        <v>12</v>
-      </c>
-      <c r="E18">
-        <f>$B18*1.75</f>
-        <v>14</v>
-      </c>
-      <c r="F18">
-        <f>$B18*2</f>
-        <v>16</v>
-      </c>
-      <c r="G18">
-        <f>$B18*2.25</f>
-        <v>18</v>
+      <c r="C19" s="1">
+        <f>$B19*$C$1</f>
+        <v>11.2</v>
+      </c>
+      <c r="D19" s="1">
+        <f t="shared" si="1"/>
+        <v>14.4</v>
+      </c>
+      <c r="E19" s="1">
+        <f t="shared" si="2"/>
+        <v>17.600000000000001</v>
+      </c>
+      <c r="F19" s="1">
+        <f t="shared" si="3"/>
+        <v>20.8</v>
+      </c>
+      <c r="G19" s="1">
+        <f t="shared" si="4"/>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
